--- a/states/Gran Canaria (Spagna).xlsx
+++ b/states/Gran Canaria (Spagna).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="B2" t="n">
+        <v>426</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>368000</v>
@@ -765,6 +759,116 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>368000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2620</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>86884.8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>44270.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>236844.8</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2570.74</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
